--- a/2023-2024-1-clazzs.xlsx
+++ b/2023-2024-1-clazzs.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eclipse-workspace\JavaLecture\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D24D3816-0980-4317-B6DB-8DB740FC1BEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE8CAA0F-F566-4DF8-9A65-A0B7CC789799}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28690" yWindow="-110" windowWidth="29020" windowHeight="15820" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="配置" sheetId="1" r:id="rId1"/>
     <sheet name="22计网" sheetId="5" r:id="rId2"/>
     <sheet name="21计网" sheetId="2" r:id="rId3"/>
+    <sheet name="23计应" sheetId="6" r:id="rId4"/>
+    <sheet name="23会计" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="139">
   <si>
     <t>班级名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -181,9 +183,6 @@
     <t>刘志江</t>
   </si>
   <si>
-    <t>聂子岳</t>
-  </si>
-  <si>
     <t>刘姚敏</t>
   </si>
   <si>
@@ -202,9 +201,6 @@
     <t>谭杰</t>
   </si>
   <si>
-    <t>谭胜</t>
-  </si>
-  <si>
     <t>廖轩</t>
   </si>
   <si>
@@ -217,9 +213,6 @@
     <t>李俊诚</t>
   </si>
   <si>
-    <t>肖志纬</t>
-  </si>
-  <si>
     <t>郭苏屯</t>
   </si>
   <si>
@@ -269,9 +262,6 @@
   </si>
   <si>
     <t>贾江涛</t>
-  </si>
-  <si>
-    <t>王香缘</t>
   </si>
   <si>
     <t>李飞炫</t>
@@ -300,13 +290,409 @@
   <si>
     <t>宋仁杰</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王香瑗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙钦兰</t>
+  </si>
+  <si>
+    <t>肖航琦</t>
+  </si>
+  <si>
+    <t>邓玉涵</t>
+  </si>
+  <si>
+    <t>刘姿晨</t>
+  </si>
+  <si>
+    <t>杨伟萍</t>
+  </si>
+  <si>
+    <t>林紫招</t>
+  </si>
+  <si>
+    <t>周瑾涵</t>
+  </si>
+  <si>
+    <t>余佳欣</t>
+  </si>
+  <si>
+    <t>吕助宝</t>
+  </si>
+  <si>
+    <t>卢一商</t>
+  </si>
+  <si>
+    <t>甘子平</t>
+  </si>
+  <si>
+    <t>张侨</t>
+  </si>
+  <si>
+    <t>施星易</t>
+  </si>
+  <si>
+    <t>李智武</t>
+  </si>
+  <si>
+    <t>肖越阳</t>
+  </si>
+  <si>
+    <t>黄泽宇</t>
+  </si>
+  <si>
+    <t>钟汪洋</t>
+  </si>
+  <si>
+    <t>钟晨阳</t>
+  </si>
+  <si>
+    <t>王子锐</t>
+  </si>
+  <si>
+    <t>汤浩竣</t>
+  </si>
+  <si>
+    <t>胡育蘅</t>
+  </si>
+  <si>
+    <t>杨莉</t>
+  </si>
+  <si>
+    <t>王婧如</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>陈家兴</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>魏轲</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>赖静华</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>何斯浩</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>刘浩轩</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>谢成</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>肖紫涵</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>龙水康</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>毛华强</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>谢国涛</t>
+    </r>
+  </si>
+  <si>
+    <t>张子风</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>林培森</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>戴文强</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>沈怡婷</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>江佰智</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>余典扬</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>熊博文</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>李玉熙</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>罗子游</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>黄子军</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>张子轩</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>李朝阳</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>刘涛</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>汤子舰</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>匡奥宇</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>李苏和</t>
+    </r>
+  </si>
+  <si>
+    <t>王绎甜</t>
+  </si>
+  <si>
+    <t>王磊</t>
+  </si>
+  <si>
+    <t>钟嘉豪</t>
+  </si>
+  <si>
+    <t>23计应</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23会计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F:\应用基础</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -343,6 +729,19 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -358,7 +757,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -392,11 +791,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -407,7 +821,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -690,10 +1116,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -753,6 +1179,34 @@
         <v>8</v>
       </c>
     </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>138</v>
+      </c>
+      <c r="E4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -764,7 +1218,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3251ED1D-D17D-4E5C-B2E8-21B51A6C12B6}">
   <dimension ref="A1:A34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A34" sqref="A1:A34"/>
     </sheetView>
   </sheetViews>
@@ -937,7 +1391,7 @@
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -949,10 +1403,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD45EA27-D8AC-4286-BDFC-09EC82D04AA4}">
-  <dimension ref="A1:A41"/>
+  <dimension ref="A1:A38"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1104,62 +1558,47 @@
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1167,4 +1606,296 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{408E239C-293D-4CD7-A10B-65662A6EA75F}">
+  <dimension ref="A1:A29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A20" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A21" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A22" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A23" s="7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A24" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A25" s="7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A26" s="7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A27" s="7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A28" s="7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A29" s="7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9A58122-0D3E-49CE-B175-DAE0443A5A13}">
+  <dimension ref="A1:A23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>